--- a/medicine/Enfance/Mélanie_Allag/Mélanie_Allag.xlsx
+++ b/medicine/Enfance/Mélanie_Allag/Mélanie_Allag.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9lanie_Allag</t>
+          <t>Mélanie_Allag</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mélanie Allag est une autrice de bande dessinée et illustratrice  française de livres pour enfants et dans la presse pour enfants, née à Eaubonne en 1981.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9lanie_Allag</t>
+          <t>Mélanie_Allag</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été formée à l'École européenne supérieure de l'image d'Angoulême ; constatant que « ses vidéos ne sont pas assez abouties », elle s'oriente vers l'illustration et collabore également avec le groupe Bayard, avec un premier contrat dans J'aime lire[1]. Elle collabore à plusieurs revues pour enfants, notamment : J'apprends à lire, J'aime lire, Astrapi, Dlire, Moi je lis[2],[3]. Elle fait partie de l'association nantaise de dessinateurs La Baie Noire[4]. Elle emploie plusieurs procédés : aquarelle, crayon de couleur ou palette graphique, avec une préférence pour le crayon[1].
-Collaborant avec Aurélien Ducoudray, elle livre en 2016 le dessin de l'album L'Anniversaire de Kim-Jong-Il publié par la maison Delcourt. L'album dépeint la vie d'un garçon appelé Jun Sang en Corée du Nord[5] sur une période de huit ans[6]. Le duo publie ensuite chez Delcourt Le Repas des hyènes en 2020, album qui fera partie de la sélection officielle 12-16 ans de l'édition 2021 du Festival d'Angoulême.[7]
-En octobre 2022, elle signe le dessin d'un des premiers albums de la nouvelle collection Nathan BD, Le Jour où on a inventé les noms de famille, avec Annaïg Plassard au dessin[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été formée à l'École européenne supérieure de l'image d'Angoulême ; constatant que « ses vidéos ne sont pas assez abouties », elle s'oriente vers l'illustration et collabore également avec le groupe Bayard, avec un premier contrat dans J'aime lire. Elle collabore à plusieurs revues pour enfants, notamment : J'apprends à lire, J'aime lire, Astrapi, Dlire, Moi je lis,. Elle fait partie de l'association nantaise de dessinateurs La Baie Noire. Elle emploie plusieurs procédés : aquarelle, crayon de couleur ou palette graphique, avec une préférence pour le crayon.
+Collaborant avec Aurélien Ducoudray, elle livre en 2016 le dessin de l'album L'Anniversaire de Kim-Jong-Il publié par la maison Delcourt. L'album dépeint la vie d'un garçon appelé Jun Sang en Corée du Nord sur une période de huit ans. Le duo publie ensuite chez Delcourt Le Repas des hyènes en 2020, album qui fera partie de la sélection officielle 12-16 ans de l'édition 2021 du Festival d'Angoulême.
+En octobre 2022, elle signe le dessin d'un des premiers albums de la nouvelle collection Nathan BD, Le Jour où on a inventé les noms de famille, avec Annaïg Plassard au dessin.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9lanie_Allag</t>
+          <t>Mélanie_Allag</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,14 +560,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bande dessinée
-L'Anniversaire de Kim Jong-Il[5], scénario d'Aurélien Ducoudray, Delcourt, 2016  (ISBN 9782756051543)
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Anniversaire de Kim Jong-Il, scénario d'Aurélien Ducoudray, Delcourt, 2016  (ISBN 9782756051543)
 Le Repas des hyènes, scénario d'Aurélien Ducoudray, Delcourt, 2020  (ISBN 9782413002116)
 Punch! Saison 1 - Cratère, Kinaye, 2021  (ISBN 9782357990951)
 Le Jour où on a inventé les noms de famille, scénario d'Annaïg Plassard, Nathan, 2022  (ISBN 9782092494486)
-Les Chats, scénario de Gwénaëlle Boulet, Bayard, 2023  (ISBN 9791036329180)
-Littérature jeunesse
-Aldrik, le viking pacifique, texte de Richard Petitsigne, P'tit Glénat, 2021
+Les Chats, scénario de Gwénaëlle Boulet, Bayard, 2023  (ISBN 9791036329180)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mélanie_Allag</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lanie_Allag</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aldrik, le viking pacifique, texte de Richard Petitsigne, P'tit Glénat, 2021
 La Sorcière Sorciflette, texte de Marie-Sabine Roger, Lito, 2018
 Pendant que le loup n'y est pas, texte d'Alice-Brière Hacquet, L'Élan vert, 2017
 Mon doudur à l'école, texte de Valérie Cros, Bayard, 2017
@@ -578,9 +631,47 @@
 La Maîtresse a de grandes oreilles, texte de Nathalie Dargent, Milan, 2011
 Hugo et Lola découvrent la ferme, Amaterra, 2009
 Je découvre mon corps avec Clara et Lucas, Nouvel Angle, 2008
-Je veux une quiziiine !, texte de Sophie Dieuaide, Talents Hauts, 2008
-Série Scarlett et Watson
-Série de polars "premiers romans" publiée par Milan, sur des textes de Jean-Michel Payet
+Je veux une quiziiine !, texte de Sophie Dieuaide, Talents Hauts, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mélanie_Allag</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lanie_Allag</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Scarlett et Watson</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Série de polars "premiers romans" publiée par Milan, sur des textes de Jean-Michel Payet
 Le Trésor de M. Ziane, 2012
 Le Chat égyptien, 2012
 Chats perdus portés disparus, 2012
@@ -589,15 +680,91 @@
 Enquête au poney-club, 2014
 Mystère à la fête foraine, 2015
 Mystère et crustacés, 2015
-Arnaque à Central Park, 2016
-Série Salut les vampires
-Série de textes "premières lectures" publiée par Lito, sur des textes de Yann Autret
+Arnaque à Central Park, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mélanie_Allag</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lanie_Allag</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Salut les vampires</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Série de textes "premières lectures" publiée par Lito, sur des textes de Yann Autret
 400 bougies pour Wlad, 2010  (ISBN 9782244442686)
 Un chien mignon à croquer, 2010  (ISBN 9782244442693)
 La bande des Bizarres, 2010  (ISBN 9782244442662)
-Le grand méchant double, 2010  (ISBN 9782244442679)
-Série Les Animaux de Lou
-Série de textes "premières lectures" publiée par Nathan, sur des textes de Mymi Doinet.
+Le grand méchant double, 2010  (ISBN 9782244442679)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mélanie_Allag</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lanie_Allag</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Les Animaux de Lou</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Série de textes "premières lectures" publiée par Nathan, sur des textes de Mymi Doinet.
 Vole, Petit Galop !, 2010
 Ne pleure plus, petit Roux !, 2010
 N'aie pas peur, Petit Koala !, 2011
@@ -617,21 +784,135 @@
 Où es-tu, Petit Ourson ?, 2018
 Tu grandiras petit girafon !, 2019
 Pas de pyjama pour Petit lama !, 2021
-Je vais t'aider Petit Hérisson !, 2023
-Série Les Docs de Lou
-Série de romans "premières lectures" publiée par Nathan, sur des textes de Mymi Doinet.
+Je vais t'aider Petit Hérisson !, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mélanie_Allag</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lanie_Allag</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Les Docs de Lou</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Série de romans "premières lectures" publiée par Nathan, sur des textes de Mymi Doinet.
 Tout sur les chevaux !, 2017
 Tout sur les chiens !, 2017
 Tout sur les chats !, 2018
 Tout sur les dinosaures !, 2019
-Tout sur les loups !, 2020
-Série Le plus terrible du monde
-Série d'albums jeunesse publiée par P'tit Glénat, sur des textes de Richard Petitsigne.
+Tout sur les loups !, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mélanie_Allag</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lanie_Allag</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Le plus terrible du monde</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Série d'albums jeunesse publiée par P'tit Glénat, sur des textes de Richard Petitsigne.
 Le Pirate le plus terrible du monde, 2017
 L'Équipage le plus terrible du monde, 2018
-La Pirate la plus terrible du monde, 2019
-Série Mode d'emploi
-Série d'albums jeunesse publiée par P'tit Glénat, sur des textes d'Alice Brière-Hacquet.
+La Pirate la plus terrible du monde, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mélanie_Allag</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lanie_Allag</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Mode d'emploi</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Série d'albums jeunesse publiée par P'tit Glénat, sur des textes d'Alice Brière-Hacquet.
 Princesses mode d'emploi, 2012
 Dragons mode d'emploi, 2012
 Fantômes : mode d'emploi, 2013
@@ -641,34 +922,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M%C3%A9lanie_Allag</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9lanie_Allag</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mélanie_Allag</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lanie_Allag</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2014 : Prix coup de cœur des P'tits lecteurs plainais pour Mon parc d'attraction avec Myriam Ouyessad[9]
-2017 : prix Ellipses de la Bulle pour l'Anniversaire de Kim-Jong-Il, avec Aurélien Ducoudray[10]</t>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2014 : Prix coup de cœur des P'tits lecteurs plainais pour Mon parc d'attraction avec Myriam Ouyessad
+2017 : prix Ellipses de la Bulle pour l'Anniversaire de Kim-Jong-Il, avec Aurélien Ducoudray</t>
         </is>
       </c>
     </row>
